--- a/measurement.xlsx
+++ b/measurement.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20385"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D7DE327-51E9-4B90-AEBF-BD7E3A149B30}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38CC51E0-ABAA-7449-A6DB-5A2726ED7903}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16185" windowHeight="6053" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="23880" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="32">
   <si>
     <t>trans time</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -129,6 +129,13 @@
   </si>
   <si>
     <t>ecb hardware</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Node 1: 1408.07 mC (0.391 mAh) charge consumption, 4101.70 mJ energy consumption or 68.36 mW in 60.00 seconds</t>
+  </si>
+  <si>
+    <t>Hardware encryption</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -136,7 +143,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -489,20 +496,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection sqref="A1:F5"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="13.6640625" customWidth="1"/>
     <col min="3" max="3" width="11.33203125" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -521,7 +528,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>3</v>
@@ -539,7 +546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -559,7 +566,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -579,7 +586,7 @@
         <v>1819</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -599,12 +606,12 @@
         <v>1833</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7">
       <c r="A7" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -624,7 +631,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7">
       <c r="A9" s="1">
         <v>19787</v>
       </c>
@@ -644,7 +651,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -652,7 +659,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
@@ -672,7 +679,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7">
       <c r="A12" s="1">
         <v>18643</v>
       </c>
@@ -692,13 +699,13 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B15" s="1"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
@@ -706,12 +713,20 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -725,13 +740,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44B1018F-1555-4000-82B6-BA64A920E4B0}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -747,7 +762,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>3</v>
@@ -765,7 +780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -785,7 +800,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -805,7 +820,7 @@
         <v>1819</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -825,12 +840,12 @@
         <v>1833</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7">
       <c r="G7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
         <v>24</v>
       </c>
@@ -846,7 +861,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
         <v>3</v>
@@ -864,7 +879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
@@ -877,7 +892,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -895,7 +910,7 @@
       </c>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>

--- a/measurement.xlsx
+++ b/measurement.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38CC51E0-ABAA-7449-A6DB-5A2726ED7903}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3343781E-8EDB-7341-87B1-C8E37A4F73AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="23880" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="37">
   <si>
     <t>trans time</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -94,20 +94,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Node 1: 1401.64 mC (0.389 mAh) charge consumption, 4158.67 mJ energy consumption or 69.31 mW in 60.00 seconds</t>
-  </si>
-  <si>
     <t>plaintext</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>encryption</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Node 1: 1416.66 mC (0.394 mAh) charge consumption, 4203.22 mJ energy consumption or 70.04 mW in 60.01 seconds</t>
-  </si>
-  <si>
     <t>TIME(ticks)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -132,11 +122,38 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Node 1: 1408.07 mC (0.391 mAh) charge consumption, 4101.70 mJ energy consumption or 68.36 mW in 60.00 seconds</t>
-  </si>
-  <si>
     <t>Hardware encryption</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Node 1: 1407.89 mC (0.391 mAh) charge consumption, 4167.36 mJ energy consumption or 69.46 mW in 60.00 seconds</t>
+  </si>
+  <si>
+    <t>Voltage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Energy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Node 1: 1407.61 mC (0.391 mAh) charge consumption, 4166.53 mJ energy consumption or 69.44 mW in 60.00 seconds</t>
+  </si>
+  <si>
+    <t>software encryption</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Node 1: 1415.83 mC (0.393 mAh) charge consumption, 4193.70 mJ energy consumption or 69.90 mW in 60.00 seconds</t>
+  </si>
+  <si>
+    <t>Node 1: 1416.68 mC (0.394 mAh) charge consumption, 4196.21 mJ energy consumption or 69.94 mW in 60.00 seconds</t>
+  </si>
+  <si>
+    <t>Node 1: 1408.29 mC (0.391 mAh) charge consumption, 4168.53 mJ energy consumption or 69.48 mW in 60.00 seconds</t>
+  </si>
+  <si>
+    <t>Node 1: 1408.11 mC (0.391 mAh) charge consumption, 4170.83 mJ energy consumption or 69.51 mW in 60.00 seconds</t>
   </si>
 </sst>
 </file>
@@ -173,7 +190,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -207,15 +224,25 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -496,10 +523,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -511,7 +538,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -525,7 +552,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -608,7 +635,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -703,30 +730,77 @@
       <c r="A15" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="B16" s="1">
+        <v>2.96</v>
+      </c>
+      <c r="C16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="1">
+        <v>2.96</v>
+      </c>
+      <c r="C17" t="s">
         <v>31</v>
       </c>
-      <c r="B18" t="s">
-        <v>30</v>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18">
+        <v>2.9620000000000002</v>
+      </c>
+      <c r="C18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19">
+        <v>2.9620000000000002</v>
+      </c>
+      <c r="C19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="4">
+        <v>2.96</v>
+      </c>
+      <c r="C20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="4">
+        <v>2.9620000000000002</v>
+      </c>
+      <c r="C21" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -748,7 +822,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -842,19 +916,19 @@
     </row>
     <row r="7" spans="1:7">
       <c r="G7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">

--- a/measurement.xlsx
+++ b/measurement.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20385"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3343781E-8EDB-7341-87B1-C8E37A4F73AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A421F374-6242-40EE-A734-D79086D2907F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="23880" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="503" windowWidth="23880" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="38">
   <si>
     <t>trans time</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -154,13 +154,17 @@
   </si>
   <si>
     <t>Node 1: 1408.11 mC (0.391 mAh) charge consumption, 4170.83 mJ energy consumption or 69.51 mW in 60.00 seconds</t>
+  </si>
+  <si>
+    <t>Messages in 60s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -525,18 +529,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="13.6640625" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" customWidth="1"/>
+    <col min="3" max="3" width="9.265625" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
@@ -555,7 +559,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>3</v>
@@ -573,7 +577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -593,7 +597,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -613,7 +617,7 @@
         <v>1819</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -633,12 +637,12 @@
         <v>1833</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -658,7 +662,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>19787</v>
       </c>
@@ -678,7 +682,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -686,7 +690,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
@@ -706,7 +710,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>18643</v>
       </c>
@@ -726,7 +730,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>19</v>
       </c>
@@ -734,72 +738,93 @@
         <v>29</v>
       </c>
       <c r="C15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B16" s="1">
         <v>2.96</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16">
+        <v>1001</v>
+      </c>
+      <c r="D16" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B17" s="1">
         <v>2.96</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17">
+        <v>986</v>
+      </c>
+      <c r="D17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B18">
         <v>2.9620000000000002</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18">
+        <v>802</v>
+      </c>
+      <c r="D18" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B19">
         <v>2.9620000000000002</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19">
+        <v>834</v>
+      </c>
+      <c r="D19" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B20" s="4">
         <v>2.96</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20">
+        <v>950</v>
+      </c>
+      <c r="D20" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B21" s="4">
         <v>2.9620000000000002</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21">
+        <v>931</v>
+      </c>
+      <c r="D21" t="s">
         <v>36</v>
       </c>
     </row>
@@ -818,9 +843,9 @@
       <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
@@ -836,7 +861,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>3</v>
@@ -854,7 +879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -874,7 +899,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -894,7 +919,7 @@
         <v>1819</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -914,12 +939,12 @@
         <v>1833</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="G7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
@@ -935,7 +960,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
         <v>3</v>
@@ -953,7 +978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
@@ -966,7 +991,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -984,7 +1009,7 @@
       </c>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
